--- a/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_config_test_ni_config_name_logs.xlsx
+++ b/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_config_test_ni_config_name_logs.xlsx
@@ -510,7 +510,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:342357b8-bbf8-4a8a-ad58-fd4ab34e0064"&gt;
+          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:520e4f13-a9d2-4765-af29-ec9aa9f1967e"&gt;
   &lt;data/&gt;
 &lt;/rpc-reply&gt;
 </t>
@@ -538,10 +538,10 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Response of edit-config: &lt;rpc-reply message-id="urn:uuid:a0600154-baa8-40ad-b48d-1cfb729a6b77"&gt;
+          <t xml:space="preserve">- Response of edit-config: &lt;rpc-reply message-id="urn:uuid:de63be04-1a6f-44f1-bcff-3adc4ce2c380"&gt;
   &lt;ok/&gt;
 &lt;/rpc-reply&gt;
- - Response of commit: &lt;rpc-reply xmlns:nc-ext="urn:huawei:yang:huawei-ietf-netconf-ext" message-id="urn:uuid:811238be-b3f5-4f71-8f1c-7ae08adfe7e1" nc-ext:flow-id="75"&gt;
+ - Response of commit: &lt;rpc-reply xmlns:nc-ext="urn:huawei:yang:huawei-ietf-netconf-ext" message-id="urn:uuid:588f1240-da42-42f6-aff2-c30b880ac0c8" nc-ext:flow-id="239"&gt;
   &lt;ok/&gt;
 &lt;/rpc-reply&gt;
 </t>
@@ -549,7 +549,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:98824db2-0f57-4825-8385-8c8fd36a6c74"&gt;
+          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:8b4d38b1-7b84-4915-8a4d-64237a3d48b6"&gt;
   &lt;data&gt;
     &lt;network-instances&gt;
       &lt;network-instance&gt;
